--- a/data/trans_orig/P1417-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1417-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9247</v>
+        <v>9250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003681179180470903</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01332375057194695</v>
+        <v>0.01332765763501203</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>10863</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5850</v>
+        <v>5845</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19282</v>
+        <v>19207</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01578144629257965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008498632794895176</v>
+        <v>0.008491932934252345</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0280121108059254</v>
+        <v>0.02790265919240686</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>13418</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7413</v>
+        <v>7092</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22280</v>
+        <v>22436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009706536039943939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005362848870691124</v>
+        <v>0.005130147520085415</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01611728138124285</v>
+        <v>0.01623049584909533</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>691457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>684765</v>
+        <v>684762</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>694012</v>
@@ -824,7 +824,7 @@
         <v>0.996318820819529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9866762494280531</v>
+        <v>0.9866723423649881</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>677488</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669069</v>
+        <v>669144</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>682501</v>
+        <v>682506</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9842185537074204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9719878891940748</v>
+        <v>0.9720973408075934</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9915013672051048</v>
+        <v>0.9915080670657477</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1366</v>
@@ -857,19 +857,19 @@
         <v>1368945</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1360083</v>
+        <v>1359927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1374950</v>
+        <v>1375271</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.990293463960056</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9838827186187571</v>
+        <v>0.9837695041509046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9946371511293088</v>
+        <v>0.9948698524799146</v>
       </c>
     </row>
     <row r="6">
@@ -964,16 +964,16 @@
         <v>999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8255</v>
+        <v>8196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003193644936351886</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001038314763960117</v>
+        <v>0.001038878524289025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008582590598312885</v>
+        <v>0.008521086162786073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -982,19 +982,19 @@
         <v>12715</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6967</v>
+        <v>6681</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21980</v>
+        <v>21171</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01313049585061101</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007194247539643668</v>
+        <v>0.006898648494091378</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0226969889676275</v>
+        <v>0.02186177395770364</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1003,19 +1003,19 @@
         <v>15787</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9128</v>
+        <v>8872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25408</v>
+        <v>24706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008179041282230433</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004729128873972938</v>
+        <v>0.004596421567410874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.013163398168926</v>
+        <v>0.01279979482774361</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>958728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>953545</v>
+        <v>953604</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>960801</v>
@@ -1041,10 +1041,10 @@
         <v>0.9968063550636481</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.991417409401687</v>
+        <v>0.9914789138372138</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9989616852360399</v>
+        <v>0.9989611214757109</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>896</v>
@@ -1053,19 +1053,19 @@
         <v>955678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>946413</v>
+        <v>947222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>961426</v>
+        <v>961712</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.986869504149389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9773030110323726</v>
+        <v>0.9781382260422962</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9928057524603565</v>
+        <v>0.9931013515059086</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1789</v>
@@ -1074,19 +1074,19 @@
         <v>1914406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1904785</v>
+        <v>1905487</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1921065</v>
+        <v>1921321</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9918209587177695</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9868366018310739</v>
+        <v>0.9872002051722563</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.995270871126027</v>
+        <v>0.9954035784325891</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9624</v>
+        <v>9876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003957461109451699</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01418350930315082</v>
+        <v>0.01455578800035156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1199,19 +1199,19 @@
         <v>18796</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11205</v>
+        <v>11703</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29854</v>
+        <v>28424</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02748570203619123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01638591880610581</v>
+        <v>0.01711315217965424</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0436565994803137</v>
+        <v>0.04156526707364095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>21481</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13182</v>
+        <v>14003</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32739</v>
+        <v>32571</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01576762533414227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009676131560134643</v>
+        <v>0.01027825916369475</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02403118417166829</v>
+        <v>0.02390784105634238</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>675824</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668885</v>
+        <v>668633</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>678509</v>
@@ -1258,7 +1258,7 @@
         <v>0.9960425388905483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858164906968507</v>
+        <v>0.9854442119996486</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>665045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653987</v>
+        <v>655417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>672636</v>
+        <v>672138</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9725142979638087</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9563434005196861</v>
+        <v>0.9584347329263592</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.983614081193894</v>
+        <v>0.9828868478203459</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1317</v>
@@ -1291,19 +1291,19 @@
         <v>1340869</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1329611</v>
+        <v>1329779</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1349168</v>
+        <v>1348347</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9842323746658578</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9759688158283313</v>
+        <v>0.9760921589436578</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9903238684398652</v>
+        <v>0.9897217408363054</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>5169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2518</v>
+        <v>1826</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11390</v>
+        <v>10488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005486390743049267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00267198629034256</v>
+        <v>0.00193799489562227</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01208829338890645</v>
+        <v>0.01113065665007943</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1416,19 +1416,19 @@
         <v>15298</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8679</v>
+        <v>8745</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26946</v>
+        <v>25342</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01472967753786803</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008356143480325541</v>
+        <v>0.008419716321362595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02594395748162681</v>
+        <v>0.02439960922504199</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1437,19 +1437,19 @@
         <v>20468</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12821</v>
+        <v>12979</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32449</v>
+        <v>30972</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01033292918606069</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00647235954137903</v>
+        <v>0.006552063391080705</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01638165785484329</v>
+        <v>0.01563573415590991</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>937053</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>930832</v>
+        <v>931734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>939704</v>
+        <v>940396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9945136092569508</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9879117066110934</v>
+        <v>0.9888693433499205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9973280137096575</v>
+        <v>0.9980620051043777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>983</v>
@@ -1487,19 +1487,19 @@
         <v>1023314</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1011666</v>
+        <v>1013270</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1029933</v>
+        <v>1029867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.985270322462132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9740560425183732</v>
+        <v>0.9756003907749576</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9916438565196746</v>
+        <v>0.9915802836786373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1971</v>
@@ -1508,19 +1508,19 @@
         <v>1960366</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1948385</v>
+        <v>1949862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1968013</v>
+        <v>1967855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9896670708139393</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9836183421451566</v>
+        <v>0.9843642658440901</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9935276404586209</v>
+        <v>0.9934479366089193</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>13481</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7432</v>
+        <v>7665</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23119</v>
+        <v>23028</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004114397798215904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002268351721529086</v>
+        <v>0.002339409471686419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007055784477338089</v>
+        <v>0.007028167501558786</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -1633,19 +1633,19 @@
         <v>57673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44062</v>
+        <v>44840</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74506</v>
+        <v>74635</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01706705025658779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01303919915510766</v>
+        <v>0.01326929291945971</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02204848391161074</v>
+        <v>0.02208654957310167</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1654,19 +1654,19 @@
         <v>71154</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54557</v>
+        <v>54281</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89843</v>
+        <v>88905</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01069061083892849</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008196931786894681</v>
+        <v>0.008155503519834689</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01349864006524869</v>
+        <v>0.0133577148242824</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3263062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3253424</v>
+        <v>3253515</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3269111</v>
+        <v>3268878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9958856022017841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9929442155226622</v>
+        <v>0.9929718324984416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9977316482784709</v>
+        <v>0.9976605905283137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3242</v>
@@ -1704,19 +1704,19 @@
         <v>3321524</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3304691</v>
+        <v>3304562</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3335135</v>
+        <v>3334357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9829329497434122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9779515160883894</v>
+        <v>0.9779134504268989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9869608008448926</v>
+        <v>0.9867307070805407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6443</v>
@@ -1725,19 +1725,19 @@
         <v>6584587</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6565898</v>
+        <v>6566836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6601184</v>
+        <v>6601460</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9893093891610715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9865013599347514</v>
+        <v>0.9866422851757177</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9918030682131054</v>
+        <v>0.9918444964801655</v>
       </c>
     </row>
     <row r="18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4917</v>
+        <v>4891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001389456965887304</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006990260316698101</v>
+        <v>0.006953224850211075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2090,19 +2090,19 @@
         <v>17281</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10177</v>
+        <v>10049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28833</v>
+        <v>26890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02479093973632607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01459957444150943</v>
+        <v>0.01441614877295088</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04136430760755998</v>
+        <v>0.03857647011588879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -2111,19 +2111,19 @@
         <v>18258</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10186</v>
+        <v>11020</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29868</v>
+        <v>28650</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01303657050292451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007272850300157856</v>
+        <v>0.007868856018259308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02132623473926306</v>
+        <v>0.02045693737292801</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2140,7 @@
         <v>702492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>698552</v>
+        <v>698578</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>703469</v>
@@ -2149,7 +2149,7 @@
         <v>0.9986105430341127</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9930097396833019</v>
+        <v>0.9930467751497889</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
         <v>679769</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>668217</v>
+        <v>670160</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>686873</v>
+        <v>687001</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9752090602636739</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9586356923924404</v>
+        <v>0.9614235298841112</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9854004255584906</v>
+        <v>0.9855838512270492</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1307</v>
@@ -2182,19 +2182,19 @@
         <v>1382261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1370651</v>
+        <v>1371869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1390333</v>
+        <v>1389499</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9869634294970755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.978673765260737</v>
+        <v>0.9795430626270719</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9927271496998423</v>
+        <v>0.9921311439817407</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>7249</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3036</v>
+        <v>3194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14452</v>
+        <v>14524</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007121405317259264</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002982203644777606</v>
+        <v>0.003137286463882748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01419763289384232</v>
+        <v>0.0142680474622341</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2307,19 +2307,19 @@
         <v>33411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22958</v>
+        <v>23451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47852</v>
+        <v>46108</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03246977436216186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0223110824662154</v>
+        <v>0.02279099883560928</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04650461289393631</v>
+        <v>0.04481007635456375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -2328,19 +2328,19 @@
         <v>40660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29688</v>
+        <v>29010</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56083</v>
+        <v>57524</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0198638623796384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01450371895036122</v>
+        <v>0.01417241846253925</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0273989563105415</v>
+        <v>0.02810284653019944</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1010698</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1003495</v>
+        <v>1003423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1014911</v>
+        <v>1014753</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9928785946827408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9858023671061575</v>
+        <v>0.9857319525377659</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9970177963552224</v>
+        <v>0.9968627135361173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>908</v>
@@ -2378,19 +2378,19 @@
         <v>995562</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>981121</v>
+        <v>982865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1006015</v>
+        <v>1005522</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9675302256378382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9534953871060631</v>
+        <v>0.9551899236454362</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9776889175337845</v>
+        <v>0.9772090011643907</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1837</v>
@@ -2399,19 +2399,19 @@
         <v>2006261</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1990838</v>
+        <v>1989397</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2017233</v>
+        <v>2017911</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9801361376203616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9726010436894584</v>
+        <v>0.9718971534698005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9854962810496389</v>
+        <v>0.9858275815374608</v>
       </c>
     </row>
     <row r="9">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5297</v>
+        <v>5318</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001390156823273243</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006991096064301612</v>
+        <v>0.007019205063807996</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -2524,19 +2524,19 @@
         <v>20686</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12336</v>
+        <v>12944</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31512</v>
+        <v>31700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02661701705986683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01587307383507899</v>
+        <v>0.01665489471360414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04054626865847975</v>
+        <v>0.0407887959330597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2545,19 +2545,19 @@
         <v>21739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14118</v>
+        <v>13560</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33870</v>
+        <v>33422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01416426046076881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009198321983889772</v>
+        <v>0.008834720766731306</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02206812201633626</v>
+        <v>0.02177616925290237</v>
       </c>
     </row>
     <row r="11">
@@ -2574,7 +2574,7 @@
         <v>756570</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752326</v>
+        <v>752305</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>757623</v>
@@ -2583,7 +2583,7 @@
         <v>0.9986098431767267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9930089039356984</v>
+        <v>0.992980794936192</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2595,19 +2595,19 @@
         <v>756488</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>745662</v>
+        <v>745474</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>764838</v>
+        <v>764230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9733829829401331</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.95945373134152</v>
+        <v>0.9592112040669403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.984126926164921</v>
+        <v>0.9833451052863958</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1374</v>
@@ -2616,19 +2616,19 @@
         <v>1513058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1500927</v>
+        <v>1501375</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1520679</v>
+        <v>1521237</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9858357395392312</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9779318779836638</v>
+        <v>0.9782238307470976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9908016780161102</v>
+        <v>0.9911652792332687</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>6045</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2020</v>
+        <v>2896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12225</v>
+        <v>13019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006377875199561814</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002131445471715036</v>
+        <v>0.003055315464430588</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01289904129821412</v>
+        <v>0.01373731513499587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -2741,19 +2741,19 @@
         <v>25182</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17122</v>
+        <v>16900</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37023</v>
+        <v>35109</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02396360774155975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01629353654775767</v>
+        <v>0.01608194252469071</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03523167550588089</v>
+        <v>0.03340971222096391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -2762,19 +2762,19 @@
         <v>31227</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21293</v>
+        <v>22036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>44148</v>
+        <v>43730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01562439924824847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01065391016200806</v>
+        <v>0.01102565888019161</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02208952093146469</v>
+        <v>0.02188025039897559</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>941694</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>935514</v>
+        <v>934720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945719</v>
+        <v>944843</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9936221248004382</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9871009587017862</v>
+        <v>0.9862626848650041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9978685545282849</v>
+        <v>0.9969446845355698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>977</v>
@@ -2812,19 +2812,19 @@
         <v>1025673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1013832</v>
+        <v>1015746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1033733</v>
+        <v>1033955</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9760363922584403</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.964768324494119</v>
+        <v>0.966590287779036</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9837064634522422</v>
+        <v>0.9839180574753092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1881</v>
@@ -2833,19 +2833,19 @@
         <v>1967367</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1954446</v>
+        <v>1954864</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1977301</v>
+        <v>1976558</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9843756007517516</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.977910479068535</v>
+        <v>0.9781197496010244</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9893460898379919</v>
+        <v>0.988974341119808</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>15324</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9156</v>
+        <v>9094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25517</v>
+        <v>24143</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0044719643820691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002672004141995643</v>
+        <v>0.002653860685908679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007446310442123063</v>
+        <v>0.007045456988643975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -2958,19 +2958,19 @@
         <v>96559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79296</v>
+        <v>78437</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118467</v>
+        <v>119064</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02716881458012581</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0223115472155917</v>
+        <v>0.02206987616510577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03333290930711814</v>
+        <v>0.03350094007446795</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -2979,19 +2979,19 @@
         <v>111884</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>92282</v>
+        <v>92732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136281</v>
+        <v>134868</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01602729165886525</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01321933288778764</v>
+        <v>0.01328377755450758</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01952213042737943</v>
+        <v>0.01931972429695555</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3411455</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3401262</v>
+        <v>3402636</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3417623</v>
+        <v>3417685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9955280356179309</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9925536895578769</v>
+        <v>0.992954543011356</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973279958580044</v>
+        <v>0.9973461393140913</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3205</v>
@@ -3029,19 +3029,19 @@
         <v>3457493</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3435585</v>
+        <v>3434988</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3474756</v>
+        <v>3475615</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9728311854198742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9666670906928817</v>
+        <v>0.966499059925532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9776884527844083</v>
+        <v>0.9779301238348941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6399</v>
@@ -3050,19 +3050,19 @@
         <v>6868947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6844550</v>
+        <v>6845963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6888549</v>
+        <v>6888099</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9839727083411347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9804778695726206</v>
+        <v>0.9806802757030444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9867806671122122</v>
+        <v>0.9867162224454924</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>5247</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1908</v>
+        <v>1817</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12226</v>
+        <v>11322</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007775416148880608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002827204679177698</v>
+        <v>0.002692680849541086</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01811744501524783</v>
+        <v>0.01677853457343415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3415,19 +3415,19 @@
         <v>19997</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12395</v>
+        <v>12397</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30124</v>
+        <v>31533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02972074350425569</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01842149477625152</v>
+        <v>0.01842442403268215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04477173128035226</v>
+        <v>0.04686603966963076</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -3436,19 +3436,19 @@
         <v>25244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16701</v>
+        <v>17162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36598</v>
+        <v>39032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0187321130766585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01239259721808045</v>
+        <v>0.01273491669960153</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02715686735510312</v>
+        <v>0.02896358247800022</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>669553</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>662574</v>
+        <v>663478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672892</v>
+        <v>672983</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9922245838511194</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9818825549847519</v>
+        <v>0.9832214654265655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9971727953208221</v>
+        <v>0.9973073191504587</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>647</v>
@@ -3486,19 +3486,19 @@
         <v>652842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>642715</v>
+        <v>641306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>660444</v>
+        <v>660442</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9702792564957443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9552282687196478</v>
+        <v>0.9531339603303692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9815785052237485</v>
+        <v>0.9815755759673179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1294</v>
@@ -3507,19 +3507,19 @@
         <v>1322395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1311041</v>
+        <v>1308607</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1330938</v>
+        <v>1330477</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9812678869233415</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.972843132644897</v>
+        <v>0.9710364175219984</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9876074027819195</v>
+        <v>0.9872650833003985</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>8190</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4021</v>
+        <v>4079</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15000</v>
+        <v>15550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008010718947133027</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003932447694129561</v>
+        <v>0.003989945271023714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01467060224774</v>
+        <v>0.01520903549653975</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -3632,19 +3632,19 @@
         <v>21405</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13915</v>
+        <v>14042</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32541</v>
+        <v>32863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02052416865458347</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01334263861096461</v>
+        <v>0.01346458433428597</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03120167054254179</v>
+        <v>0.03151096552565395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -3653,19 +3653,19 @@
         <v>29595</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19483</v>
+        <v>19886</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41046</v>
+        <v>41481</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01432949172242433</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009433484880416548</v>
+        <v>0.00962862394629594</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01987344536188339</v>
+        <v>0.02008411850635507</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1014241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1007431</v>
+        <v>1006881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018410</v>
+        <v>1018352</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.991989281052867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9853293977522606</v>
+        <v>0.9847909645034605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9960675523058704</v>
+        <v>0.9960100547289764</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>957</v>
@@ -3703,19 +3703,19 @@
         <v>1021508</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1010372</v>
+        <v>1010050</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1028998</v>
+        <v>1028871</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9794758313454165</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9687983294574581</v>
+        <v>0.9684890344743459</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9866573613890354</v>
+        <v>0.986535415665714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1900</v>
@@ -3724,19 +3724,19 @@
         <v>2035749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2024298</v>
+        <v>2023863</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2045861</v>
+        <v>2045458</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9856705082775756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9801265546381167</v>
+        <v>0.9799158814936451</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9905665151195835</v>
+        <v>0.9903713760537041</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>4757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1669</v>
+        <v>1797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10765</v>
+        <v>10653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00626311962556239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002196821128284811</v>
+        <v>0.002365920784456781</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01417251512197028</v>
+        <v>0.01402561072891068</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -3849,19 +3849,19 @@
         <v>17077</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9863</v>
+        <v>10091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26661</v>
+        <v>26632</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02175328465078135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01256439221487749</v>
+        <v>0.01285465618750313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03396262884588804</v>
+        <v>0.03392533702500195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3870,19 +3870,19 @@
         <v>21834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14402</v>
+        <v>14237</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33363</v>
+        <v>32622</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01413586231499728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009324416459416045</v>
+        <v>0.009217773005564001</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02160029704821995</v>
+        <v>0.02112083234956286</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>754795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748787</v>
+        <v>748899</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757883</v>
+        <v>757755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9937368803744376</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858274848780296</v>
+        <v>0.985974389271089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9978031788717151</v>
+        <v>0.9976340792155433</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>720</v>
@@ -3920,19 +3920,19 @@
         <v>767934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>758350</v>
+        <v>758379</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>775148</v>
+        <v>774920</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9782467153492187</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9660373711541116</v>
+        <v>0.9660746629749984</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9874356077851222</v>
+        <v>0.9871453438124971</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1411</v>
@@ -3941,19 +3941,19 @@
         <v>1522729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1511200</v>
+        <v>1511941</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1530161</v>
+        <v>1530326</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9858641376850027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9783997029517801</v>
+        <v>0.9788791676504373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9906755835405839</v>
+        <v>0.9907822269944361</v>
       </c>
     </row>
     <row r="12">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4933</v>
+        <v>4530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0009615136502980665</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005261449782831422</v>
+        <v>0.004831758777486524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -4066,19 +4066,19 @@
         <v>28395</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18888</v>
+        <v>18905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41620</v>
+        <v>40730</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02720438510653621</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0180960051070725</v>
+        <v>0.01811179902508944</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03987421838668032</v>
+        <v>0.03902168456348051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -4087,19 +4087,19 @@
         <v>29297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19235</v>
+        <v>19192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41613</v>
+        <v>41366</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01478633692455942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009708213217929524</v>
+        <v>0.009686446805107655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02100224661195233</v>
+        <v>0.02087786167722194</v>
       </c>
     </row>
     <row r="14">
@@ -4116,7 +4116,7 @@
         <v>936666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>932634</v>
+        <v>933037</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>937567</v>
@@ -4125,7 +4125,7 @@
         <v>0.9990384863497019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9947385502171686</v>
+        <v>0.9951682412225135</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4137,19 +4137,19 @@
         <v>1015384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1002159</v>
+        <v>1003049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1024891</v>
+        <v>1024874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9727956148934638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9601257816133197</v>
+        <v>0.9609783154365195</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9819039948929276</v>
+        <v>0.9818882009749106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1864</v>
@@ -4158,19 +4158,19 @@
         <v>1952049</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1939733</v>
+        <v>1939980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1962111</v>
+        <v>1962154</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9852136630754406</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9789977533880477</v>
+        <v>0.9791221383227781</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9902917867820705</v>
+        <v>0.9903135531948932</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>19096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12357</v>
+        <v>11322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29226</v>
+        <v>28094</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005625791972198139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003640441964778206</v>
+        <v>0.003335593122821811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008610046315213045</v>
+        <v>0.008276559108519611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -4283,19 +4283,19 @@
         <v>86874</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70095</v>
+        <v>69247</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107678</v>
+        <v>107504</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0245092683986497</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01977555351011983</v>
+        <v>0.01953636787609515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03037864013392986</v>
+        <v>0.0303293833949761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -4304,19 +4304,19 @@
         <v>105970</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89045</v>
+        <v>86069</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127760</v>
+        <v>127268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01527189569889133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01283276076392343</v>
+        <v>0.01240378695154584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01841215079889297</v>
+        <v>0.01834125632238676</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3375254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3365124</v>
+        <v>3366256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3381993</v>
+        <v>3383028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9943742080278019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9913899536847868</v>
+        <v>0.9917234408914811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9963595580352218</v>
+        <v>0.9966644068771784</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3257</v>
@@ -4354,19 +4354,19 @@
         <v>3457668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436864</v>
+        <v>3437038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3474447</v>
+        <v>3475295</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9754907316013502</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9696213598660705</v>
+        <v>0.9696706166050238</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9802244464898803</v>
+        <v>0.9804636321239049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6469</v>
@@ -4375,19 +4375,19 @@
         <v>6832922</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6811132</v>
+        <v>6811624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6849847</v>
+        <v>6852823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9847281043011087</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.981587849201107</v>
+        <v>0.9816587436776133</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9871672392360765</v>
+        <v>0.9875962130484541</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>10965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6456</v>
+        <v>6259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17887</v>
+        <v>17805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01590584091134878</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009365967964576519</v>
+        <v>0.009079922651668158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02594762512598872</v>
+        <v>0.02582954962014435</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -4740,19 +4740,19 @@
         <v>28149</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20510</v>
+        <v>21148</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38697</v>
+        <v>37360</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03843131943127159</v>
+        <v>0.03843131943127158</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02800165124530635</v>
+        <v>0.028872745231151</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05283271400091807</v>
+        <v>0.05100779014336197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -4761,19 +4761,19 @@
         <v>39113</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30224</v>
+        <v>30445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>50966</v>
+        <v>51662</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02750997521365715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02125806304907604</v>
+        <v>0.02141324032879658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03584657861237352</v>
+        <v>0.03633582707556621</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>678377</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>671455</v>
+        <v>671537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682886</v>
+        <v>683083</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9840941590886514</v>
+        <v>0.9840941590886512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9740523748740113</v>
+        <v>0.9741704503798556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9906340320354236</v>
+        <v>0.9909200773483319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1183</v>
@@ -4811,19 +4811,19 @@
         <v>704290</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>693742</v>
+        <v>695079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>711929</v>
+        <v>711291</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9615686805687284</v>
+        <v>0.9615686805687286</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9471672859990822</v>
+        <v>0.948992209856638</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9719983487546939</v>
+        <v>0.971127254768849</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1895</v>
@@ -4832,19 +4832,19 @@
         <v>1382669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1370816</v>
+        <v>1370120</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1391558</v>
+        <v>1391337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9724900247863428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9641534213876263</v>
+        <v>0.9636641729244337</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9787419369509239</v>
+        <v>0.9785867596712035</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>15639</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9756</v>
+        <v>9982</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23565</v>
+        <v>23706</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01492391341286399</v>
+        <v>0.01492391341286398</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00930960845580059</v>
+        <v>0.009526068015517716</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02248734720340154</v>
+        <v>0.02262216639766398</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -4957,19 +4957,19 @@
         <v>44439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34530</v>
+        <v>34832</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54911</v>
+        <v>56110</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04157731084378544</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03230618918875023</v>
+        <v>0.03258893449183403</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05137442058399252</v>
+        <v>0.05249632953318644</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -4978,19 +4978,19 @@
         <v>60078</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47969</v>
+        <v>48797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74169</v>
+        <v>74522</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02838237054671523</v>
+        <v>0.02838237054671522</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02266149849174984</v>
+        <v>0.02305299384453668</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03503899629432932</v>
+        <v>0.03520610031304958</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1032270</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1024344</v>
+        <v>1024203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1038153</v>
+        <v>1037927</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9850760865871361</v>
+        <v>0.985076086587136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9775126527965986</v>
+        <v>0.9773778336023361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906903915441994</v>
+        <v>0.9904739319844825</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1442</v>
@@ -5028,19 +5028,19 @@
         <v>1024398</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1013926</v>
+        <v>1012727</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1034307</v>
+        <v>1034005</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9584226891562146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9486255794160074</v>
+        <v>0.9475036704668136</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9676938108112497</v>
+        <v>0.967411065508166</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2384</v>
@@ -5049,19 +5049,19 @@
         <v>2056667</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2042576</v>
+        <v>2042223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2068776</v>
+        <v>2067948</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9716176294532847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9649610037056705</v>
+        <v>0.9647938996869505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9773385015082502</v>
+        <v>0.976947006155463</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>8505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4013</v>
+        <v>4231</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15702</v>
+        <v>16282</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01063313612241927</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0050167555744066</v>
+        <v>0.005289558744136684</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01963082797821663</v>
+        <v>0.02035514314120433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -5174,19 +5174,19 @@
         <v>46847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35527</v>
+        <v>35708</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61386</v>
+        <v>62500</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05776846945612513</v>
+        <v>0.05776846945612515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04380998567071526</v>
+        <v>0.04403243377461415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07569691813629432</v>
+        <v>0.07707024196862493</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -5195,19 +5195,19 @@
         <v>55352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42244</v>
+        <v>42397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71297</v>
+        <v>71513</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0343626058250853</v>
+        <v>0.03436260582508531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02622501326006821</v>
+        <v>0.0263199819244848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04426129430182424</v>
+        <v>0.04439538500927064</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>791379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>784182</v>
+        <v>783602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795871</v>
+        <v>795653</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9893668638775807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9803691720217835</v>
+        <v>0.9796448568587957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9949832444255934</v>
+        <v>0.9947104412558633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>989</v>
@@ -5245,19 +5245,19 @@
         <v>764096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>749557</v>
+        <v>748443</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>775416</v>
+        <v>775235</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9422315305438747</v>
+        <v>0.9422315305438748</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9243030818637055</v>
+        <v>0.9229297580313752</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9561900143292846</v>
+        <v>0.9559675662253858</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1653</v>
@@ -5266,19 +5266,19 @@
         <v>1555475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1539530</v>
+        <v>1539314</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1568583</v>
+        <v>1568430</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9656373941749146</v>
+        <v>0.9656373941749148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9557387056981758</v>
+        <v>0.9556046149907295</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9737749867399319</v>
+        <v>0.9736800180755152</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>8644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4830</v>
+        <v>4521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14907</v>
+        <v>14784</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.008730761595895312</v>
+        <v>0.008730761595895316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004878368426354033</v>
+        <v>0.004566337210127811</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01505681311869062</v>
+        <v>0.01493264858399212</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>73</v>
@@ -5391,19 +5391,19 @@
         <v>49049</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39051</v>
+        <v>38807</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61104</v>
+        <v>61450</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04393574522744474</v>
+        <v>0.04393574522744473</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03497993707021213</v>
+        <v>0.03476182583135398</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05473429424001727</v>
+        <v>0.0550445975856081</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -5412,19 +5412,19 @@
         <v>57693</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46100</v>
+        <v>45869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>71512</v>
+        <v>70364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02738877319433222</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0218852418380804</v>
+        <v>0.02177542259706519</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03394920859005658</v>
+        <v>0.03340442381438204</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>981418</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>975155</v>
+        <v>975278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>985232</v>
+        <v>985541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9912692384041047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9849431868813093</v>
+        <v>0.9850673514160079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995121631573646</v>
+        <v>0.9954336627898722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1485</v>
@@ -5462,19 +5462,19 @@
         <v>1067324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1055269</v>
+        <v>1054923</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1077322</v>
+        <v>1077566</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9560642547725554</v>
+        <v>0.9560642547725552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9452657057599826</v>
+        <v>0.9449554024143922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9650200629297879</v>
+        <v>0.9652381741686459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2479</v>
@@ -5483,19 +5483,19 @@
         <v>2048742</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2034923</v>
+        <v>2036071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2060335</v>
+        <v>2060566</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9726112268056677</v>
+        <v>0.9726112268056678</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9660507914099435</v>
+        <v>0.9665955761856173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9781147581619195</v>
+        <v>0.9782245774029347</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>43753</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33237</v>
+        <v>33261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57042</v>
+        <v>55962</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01240439304749517</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009423033397550198</v>
+        <v>0.009429766511322778</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01617218722224698</v>
+        <v>0.01586575757239109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>254</v>
@@ -5608,19 +5608,19 @@
         <v>168484</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>144723</v>
+        <v>148909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>189991</v>
+        <v>193056</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04518691758360206</v>
+        <v>0.04518691758360205</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.038814463212143</v>
+        <v>0.03993715915549653</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05095528284109851</v>
+        <v>0.0517771648545118</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>313</v>
@@ -5629,19 +5629,19 @@
         <v>212236</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188376</v>
+        <v>187197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>239407</v>
+        <v>237790</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02925061775368004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0259621351950043</v>
+        <v>0.02579970112851944</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03299524051875944</v>
+        <v>0.03277247341510115</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3483444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3470155</v>
+        <v>3471235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3493960</v>
+        <v>3493936</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9875956069525049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9838278127777536</v>
+        <v>0.9841342424276089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.99057696660245</v>
+        <v>0.9905702334886772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5099</v>
@@ -5679,19 +5679,19 @@
         <v>3560108</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3538601</v>
+        <v>3535536</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3583869</v>
+        <v>3579683</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.954813082416398</v>
+        <v>0.9548130824163978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9490447171589015</v>
+        <v>0.9482228351454883</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9611855367878571</v>
+        <v>0.9600628408445037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8411</v>
@@ -5700,19 +5700,19 @@
         <v>7043553</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7016382</v>
+        <v>7017999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7067413</v>
+        <v>7068592</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.97074938224632</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9670047594812405</v>
+        <v>0.9672275265848985</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9740378648049957</v>
+        <v>0.9742002988714806</v>
       </c>
     </row>
     <row r="18">
